--- a/Data/Excel/BulletDefine.xlsx
+++ b/Data/Excel/BulletDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>防御塔子弹</t>
+  </si>
+  <si>
+    <t>小防御塔子弹</t>
   </si>
 </sst>
 </file>
@@ -1080,11 +1083,12 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1193,7 +1197,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="5">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -1242,14 +1246,28 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+    <row r="7" ht="20" customHeight="1" spans="1:7">
+      <c r="A7" s="5">
+        <v>104</v>
+      </c>
+      <c r="B7" s="5">
+        <v>104</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6">
+        <v>55</v>
+      </c>
+      <c r="G7" s="6">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="5"/>
